--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Rankings/estadisticos_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Rankings/estadisticos_Lineal_Estacionario_ARMA.xlsx
@@ -49,25 +49,25 @@
     <t>DeepAR</t>
   </si>
   <si>
+    <t>MCPS</t>
+  </si>
+  <si>
     <t>AV-MCPS</t>
   </si>
   <si>
     <t>LSPM</t>
   </si>
   <si>
-    <t>MCPS</t>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>EnCQR-LSTM</t>
   </si>
   <si>
     <t>Block Bootstrapping</t>
   </si>
   <si>
     <t>AREPD</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
   </si>
 </sst>
 </file>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.548241150447542</v>
+        <v>0.5449775863837693</v>
       </c>
       <c r="C2">
-        <v>0.4914666904551582</v>
+        <v>0.4814980007181849</v>
       </c>
       <c r="D2">
-        <v>0.2730143444642161</v>
+        <v>0.2721070682010804</v>
       </c>
       <c r="E2">
-        <v>0.4979822186666363</v>
+        <v>0.4992995583665427</v>
       </c>
       <c r="F2">
-        <v>0.2140595076487874</v>
+        <v>0.2082375448988096</v>
       </c>
       <c r="G2">
-        <v>1.199014707109321</v>
+        <v>1.279782045961303</v>
       </c>
       <c r="H2">
-        <v>0.3383365856494044</v>
+        <v>0.3348886360854414</v>
       </c>
       <c r="I2">
-        <v>0.8018585307506856</v>
+        <v>0.7757058160109054</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.578071245476774</v>
+        <v>0.5689607730355942</v>
       </c>
       <c r="C3">
-        <v>0.5133470432656455</v>
+        <v>0.508182896524366</v>
       </c>
       <c r="D3">
-        <v>0.3031671771391896</v>
+        <v>0.2869394998715153</v>
       </c>
       <c r="E3">
-        <v>0.5244460427869014</v>
+        <v>0.5043221140547143</v>
       </c>
       <c r="F3">
-        <v>0.2267795514853108</v>
+        <v>0.2208030814138388</v>
       </c>
       <c r="G3">
-        <v>2.388814029192202</v>
+        <v>1.546760999311991</v>
       </c>
       <c r="H3">
-        <v>0.3686739640863882</v>
+        <v>0.3563203108118354</v>
       </c>
       <c r="I3">
-        <v>0.8117194059903972</v>
+        <v>0.8652185738518541</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.7043433626341646</v>
+        <v>0.7195530138050085</v>
       </c>
       <c r="C4">
-        <v>0.5939692642275607</v>
+        <v>0.6101341649069155</v>
       </c>
       <c r="D4">
-        <v>0.4047169324266823</v>
+        <v>0.4133722196942551</v>
       </c>
       <c r="E4">
-        <v>0.5746017551909437</v>
+        <v>0.574484731164332</v>
       </c>
       <c r="F4">
-        <v>0.2305150195269973</v>
+        <v>0.2190088958928648</v>
       </c>
       <c r="G4">
-        <v>3.213182592759344</v>
+        <v>3.972867998813402</v>
       </c>
       <c r="H4">
-        <v>0.4110564083564996</v>
+        <v>0.4154466376616381</v>
       </c>
       <c r="I4">
-        <v>1.011518039862328</v>
+        <v>1.016566920565759</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.7147028466257251</v>
+        <v>0.7298520223723688</v>
       </c>
       <c r="C5">
-        <v>0.5870812880564955</v>
+        <v>0.6013555665315808</v>
       </c>
       <c r="D5">
-        <v>0.4504166517268774</v>
+        <v>0.4771838314388734</v>
       </c>
       <c r="E5">
-        <v>0.6302152759757387</v>
+        <v>0.6538090144462397</v>
       </c>
       <c r="F5">
-        <v>0.2151884889876925</v>
+        <v>0.216710954995131</v>
       </c>
       <c r="G5">
-        <v>3.639164622471083</v>
+        <v>5.150772728662981</v>
       </c>
       <c r="H5">
-        <v>0.3927013791232702</v>
+        <v>0.4034730961588476</v>
       </c>
       <c r="I5">
-        <v>0.9663686091789547</v>
+        <v>1.016621835623983</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.719684280702942</v>
+        <v>0.7590104790790922</v>
       </c>
       <c r="C6">
-        <v>0.6002587195593105</v>
+        <v>0.6006791504465958</v>
       </c>
       <c r="D6">
-        <v>0.4348059814756389</v>
+        <v>0.541063569053327</v>
       </c>
       <c r="E6">
-        <v>0.6041621209941503</v>
+        <v>0.7128538853769182</v>
       </c>
       <c r="F6">
-        <v>0.2273146606291366</v>
+        <v>0.2160592938624315</v>
       </c>
       <c r="G6">
-        <v>2.903043228542442</v>
+        <v>6.247410695975264</v>
       </c>
       <c r="H6">
-        <v>0.420379136156992</v>
+        <v>0.4047679066491637</v>
       </c>
       <c r="I6">
-        <v>1.024633034345026</v>
+        <v>0.9951536464579059</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.9466535455977692</v>
+        <v>0.7704719163144619</v>
       </c>
       <c r="C7">
-        <v>0.685218844662702</v>
+        <v>0.613713798845319</v>
       </c>
       <c r="D7">
-        <v>0.8428287754395412</v>
+        <v>0.5522462007055703</v>
       </c>
       <c r="E7">
-        <v>0.8903244268813599</v>
+        <v>0.7167635691995494</v>
       </c>
       <c r="F7">
-        <v>0.2217638688940947</v>
+        <v>0.2164965836868788</v>
       </c>
       <c r="G7">
-        <v>6.982897781503639</v>
+        <v>6.290881243367003</v>
       </c>
       <c r="H7">
-        <v>0.4252452460834847</v>
+        <v>0.4086251829640059</v>
       </c>
       <c r="I7">
-        <v>1.172402120293081</v>
+        <v>1.009024396034717</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.9701992056259899</v>
+        <v>0.8454139596387297</v>
       </c>
       <c r="C8">
-        <v>0.6669721666137977</v>
+        <v>0.6314668970364172</v>
       </c>
       <c r="D8">
-        <v>0.8434601230414249</v>
+        <v>0.6596570311005762</v>
       </c>
       <c r="E8">
-        <v>0.8693679794318212</v>
+        <v>0.7802769561345628</v>
       </c>
       <c r="F8">
-        <v>0.2269726418071028</v>
+        <v>0.2268438870707719</v>
       </c>
       <c r="G8">
-        <v>6.52073576051401</v>
+        <v>5.533821031927871</v>
       </c>
       <c r="H8">
-        <v>0.4311284219813786</v>
+        <v>0.4239211556816492</v>
       </c>
       <c r="I8">
-        <v>1.174415326072886</v>
+        <v>1.043274600701197</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.054448770626301</v>
+        <v>0.8548487170623995</v>
       </c>
       <c r="C9">
-        <v>0.7441049186072232</v>
+        <v>0.6287279314089507</v>
       </c>
       <c r="D9">
-        <v>0.9113770858504557</v>
+        <v>0.6786402344062008</v>
       </c>
       <c r="E9">
-        <v>0.8643161348740854</v>
+        <v>0.7938717352682926</v>
       </c>
       <c r="F9">
-        <v>0.2424910593684243</v>
+        <v>0.2234973599368986</v>
       </c>
       <c r="G9">
-        <v>5.775454598441019</v>
+        <v>7.698385779145358</v>
       </c>
       <c r="H9">
-        <v>0.4399443320358525</v>
+        <v>0.4232356284732254</v>
       </c>
       <c r="I9">
-        <v>1.239748997287049</v>
+        <v>1.049289123959194</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1.105098924108501</v>
+        <v>0.8807377634720996</v>
       </c>
       <c r="C10">
-        <v>0.9308691891036176</v>
+        <v>0.6410113694337662</v>
       </c>
       <c r="D10">
-        <v>0.667296037807922</v>
+        <v>0.727138974239115</v>
       </c>
       <c r="E10">
-        <v>0.6038337593589094</v>
+        <v>0.8256021308460104</v>
       </c>
       <c r="F10">
-        <v>0.3264622362533341</v>
+        <v>0.2194162138633991</v>
       </c>
       <c r="G10">
-        <v>3.828789955098326</v>
+        <v>8.782840753868197</v>
       </c>
       <c r="H10">
-        <v>0.6006566728958599</v>
+        <v>0.4288902895808974</v>
       </c>
       <c r="I10">
-        <v>1.426968159023307</v>
+        <v>1.077811170309672</v>
       </c>
     </row>
   </sheetData>
